--- a/TP_FINAL/Conexiones de usuario.xlsx
+++ b/TP_FINAL/Conexiones de usuario.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,18 +440,338 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Inicio de Conexi¢n</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Fin de Conexio</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Usuario</t>
-        </is>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>43705.42083333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>43705.42083333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>43705.42083333333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>43705.42152777778</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>43705.42152777778</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>43705.42152777778</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>43705.42152777778</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>43705.42152777778</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>43705.42361111111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>43705.42361111111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>43705.42361111111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>43705.42361111111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>43705.42361111111</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>43705.42361111111</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>43705.42430555556</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>43705.42430555556</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>43705.42430555556</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>43705.42430555556</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>43705.42430555556</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>43705.425</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>43705.42569444444</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>43705.42638888889</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>43705.42638888889</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>43705.42708333334</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>43705.42777777778</v>
       </c>
     </row>
   </sheetData>

--- a/TP_FINAL/Conexiones de usuario.xlsx
+++ b/TP_FINAL/Conexiones de usuario.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,327 +451,951 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43705.42083333333</v>
+        <v>43705.42152777778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>43705.42083333333</v>
+        <v>43705.42152777778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43705.42083333333</v>
+        <v>43705.42569444444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>43705.42152777778</v>
+        <v>43705.42916666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>43705.42152777778</v>
+        <v>43705.43194444444</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>43705.42152777778</v>
+        <v>43705.43680555555</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>43705.42152777778</v>
+        <v>43705.4375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>43705.42152777778</v>
+        <v>43705.43888888889</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>43705.42361111111</v>
+        <v>43705.43888888889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>43705.42361111111</v>
+        <v>43705.44166666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>43705.42361111111</v>
+        <v>43705.44236111111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>43705.42361111111</v>
+        <v>43705.44444444445</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>53</v>
+        <v>302</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>43705.42361111111</v>
+        <v>43705.45277777778</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>55</v>
+        <v>352</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>43705.42361111111</v>
+        <v>43705.46041666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>57</v>
+        <v>395</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>43705.42430555556</v>
+        <v>43705.46597222222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>59</v>
+        <v>423</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>43705.42430555556</v>
+        <v>43705.46944444445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>62</v>
+        <v>427</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>43705.42430555556</v>
+        <v>43705.47013888889</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>63</v>
+        <v>435</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>43705.42430555556</v>
+        <v>43705.47083333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>64</v>
+        <v>472</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>43705.42430555556</v>
+        <v>43705.47569444445</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>66</v>
+        <v>508</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>43705.425</v>
+        <v>43705.48055555556</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>70</v>
+        <v>585</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>43705.42569444444</v>
+        <v>43705.49236111111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>78</v>
+        <v>653</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>43705.42638888889</v>
+        <v>43705.50486111111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>80</v>
+        <v>655</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>43705.42638888889</v>
+        <v>43705.50486111111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>83</v>
+        <v>656</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>43705.42708333334</v>
+        <v>43705.50486111111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>90</v>
+        <v>680</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>gdiezw</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>43705.42777777778</v>
+        <v>43705.50763888889</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>43705.51111111111</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>43705.51875</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>43705.52013888889</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>43705.52708333333</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>43705.52986111111</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>43705.53958333333</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>1382</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>43706.3375</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>1472</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>43706.36180555556</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>1503</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>43706.37083333333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>1504</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>43706.37083333333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>1572</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>43706.38472222222</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>1646</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>43706.40138888889</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>1670</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>43706.40972222222</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>1760</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>43706.43263888889</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>1763</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>43706.43333333333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>1764</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>43706.43333333333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1766</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>43706.43402777778</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>1767</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>43706.43402777778</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1788</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>43706.4375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>1789</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>43706.43819444445</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>1917</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>43706.47291666667</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>1951</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>43706.48055555556</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>1956</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>43706.48194444444</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>1958</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>43706.48194444444</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>43706.48263888889</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>1962</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>43706.48263888889</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>43706.48472222222</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>2077</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>43706.50763888889</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>2115</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>43706.51805555556</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>2117</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>43706.51875</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>2125</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>43706.52083333334</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>2158</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>43706.52708333333</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>2886</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>43707.35208333333</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>2905</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>43707.35902777778</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>2907</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>43707.35902777778</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>2924</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>43707.36666666667</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>2951</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>43707.37777777778</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>2960</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>43707.38125</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>2961</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>43707.38125</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>2963</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>43707.38194444445</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>2964</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>43707.38194444445</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>2965</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>43707.38194444445</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>2967</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>43707.38263888889</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>2972</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>43707.38472222222</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>2981</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>43707.38888888889</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>2983</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>43707.38958333333</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>2995</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>43707.39375</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>2996</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>gdiezw</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>43707.39375</v>
       </c>
     </row>
   </sheetData>
